--- a/ApolloQA/Data/RatingManual/GA/VA00070.StatedValueFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00070.StatedValueFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00070.StatedValueFactors" sheetId="1" r:id="R8f0181db580f449f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00070.StatedValueFactors" sheetId="1" r:id="Re72da52be5f449b2"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,16 +12,470 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
+        <x:v>Deductible</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>Stated Value Lower Bound</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Stated Value Upper Bound</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Stated Value Factor</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>Deductible_Stated Value Factor</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$80,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$85,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$85,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$90,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$90,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$95,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$95,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$100,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$100,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$110,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$110,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$120,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$120,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$130,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$130,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$140,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$140,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$150,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9022</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$150,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$160,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9085</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$160,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$170,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9140</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$170,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$180,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9189</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$180,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$190,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9233</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$190,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$200,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9273</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$200,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$225,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9332</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$225,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$250,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9403</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$250,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$275,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9460</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$275,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$300,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9507</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$300,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$325,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9546</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$325,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$350,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9580</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$350,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$375,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9609</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$375,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$400,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9634</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$400,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$425,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9656</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$425,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$450,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9676</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$450,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$475,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9693</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$475,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$500,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9709</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$500,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$600,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9742</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$600,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$700,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9782</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$700,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$800,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9811</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$800,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$900,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9833</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$900,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9851</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$2,500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9858</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$0</x:v>
       </x:c>
@@ -29,10 +483,13 @@
         <x:v>$5,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>3.3904</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$5,001</x:v>
       </x:c>
@@ -40,10 +497,13 @@
         <x:v>$6,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>3.1322</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$6,001</x:v>
       </x:c>
@@ -51,10 +511,13 @@
         <x:v>$7,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>2.7062</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$7,001</x:v>
       </x:c>
@@ -62,10 +525,13 @@
         <x:v>$8,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>2.3742</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$8,001</x:v>
       </x:c>
@@ -73,10 +539,13 @@
         <x:v>$9,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>2.1127</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$9,001</x:v>
       </x:c>
@@ -84,10 +553,13 @@
         <x:v>$10,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.9045</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$10,001</x:v>
       </x:c>
@@ -95,10 +567,13 @@
         <x:v>$11,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.7374</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$11,001</x:v>
       </x:c>
@@ -106,10 +581,13 @@
         <x:v>$12,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.6023</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$12,001</x:v>
       </x:c>
@@ -117,10 +595,13 @@
         <x:v>$13,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.4922</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$13,001</x:v>
       </x:c>
@@ -128,10 +609,13 @@
         <x:v>$14,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.4022</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$14,001</x:v>
       </x:c>
@@ -139,10 +623,13 @@
         <x:v>$15,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.3281</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$15,001</x:v>
       </x:c>
@@ -150,10 +637,13 @@
         <x:v>$16,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.2670</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$16,001</x:v>
       </x:c>
@@ -161,10 +651,13 @@
         <x:v>$17,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.2165</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$17,001</x:v>
       </x:c>
@@ -172,10 +665,13 @@
         <x:v>$18,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1746</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$18,001</x:v>
       </x:c>
@@ -183,10 +679,13 @@
         <x:v>$19,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1399</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$19,001</x:v>
       </x:c>
@@ -194,10 +693,13 @@
         <x:v>$20,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1111</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$20,001</x:v>
       </x:c>
@@ -205,10 +707,13 @@
         <x:v>$21,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0872</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$21,001</x:v>
       </x:c>
@@ -216,10 +721,13 @@
         <x:v>$22,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0674</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$22,001</x:v>
       </x:c>
@@ -227,10 +735,13 @@
         <x:v>$23,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0509</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$23,001</x:v>
       </x:c>
@@ -238,10 +749,13 @@
         <x:v>$24,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0372</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$24,001</x:v>
       </x:c>
@@ -249,10 +763,13 @@
         <x:v>$25,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0256</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$25,001</x:v>
       </x:c>
@@ -260,10 +777,13 @@
         <x:v>$30,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$30,001</x:v>
       </x:c>
@@ -271,10 +791,13 @@
         <x:v>$35,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9409</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$35,001</x:v>
       </x:c>
@@ -282,10 +805,13 @@
         <x:v>$40,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8690</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$40,001</x:v>
       </x:c>
@@ -293,10 +819,13 @@
         <x:v>$45,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7715</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$45,001</x:v>
       </x:c>
@@ -304,10 +833,13 @@
         <x:v>$50,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6971</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$50,001</x:v>
       </x:c>
@@ -315,10 +847,13 @@
         <x:v>$55,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6459</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$55,001</x:v>
       </x:c>
@@ -326,10 +861,13 @@
         <x:v>$60,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$60,001</x:v>
       </x:c>
@@ -337,10 +875,13 @@
         <x:v>$65,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$65,001</x:v>
       </x:c>
@@ -348,10 +889,13 @@
         <x:v>$70,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$70,001</x:v>
       </x:c>
@@ -359,10 +903,13 @@
         <x:v>$75,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$75,001</x:v>
       </x:c>
@@ -370,10 +917,13 @@
         <x:v>$80,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$80,001</x:v>
       </x:c>
@@ -381,10 +931,13 @@
         <x:v>$85,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$85,001</x:v>
       </x:c>
@@ -392,10 +945,13 @@
         <x:v>$90,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$90,001</x:v>
       </x:c>
@@ -403,10 +959,13 @@
         <x:v>$95,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$95,001</x:v>
       </x:c>
@@ -414,10 +973,13 @@
         <x:v>$100,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$100,001</x:v>
       </x:c>
@@ -425,10 +987,13 @@
         <x:v>$110,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$110,001</x:v>
       </x:c>
@@ -436,10 +1001,13 @@
         <x:v>$120,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$120,001</x:v>
       </x:c>
@@ -447,10 +1015,13 @@
         <x:v>$130,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$130,001</x:v>
       </x:c>
@@ -458,10 +1029,13 @@
         <x:v>$140,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$140,001</x:v>
       </x:c>
@@ -469,10 +1043,13 @@
         <x:v>$150,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$150,001</x:v>
       </x:c>
@@ -480,10 +1057,13 @@
         <x:v>$160,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$160,001</x:v>
       </x:c>
@@ -491,10 +1071,13 @@
         <x:v>$170,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$170,001</x:v>
       </x:c>
@@ -502,10 +1085,13 @@
         <x:v>$180,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$180,001</x:v>
       </x:c>
@@ -513,10 +1099,13 @@
         <x:v>$190,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$190,001</x:v>
       </x:c>
@@ -524,10 +1113,13 @@
         <x:v>$200,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$200,001</x:v>
       </x:c>
@@ -535,10 +1127,13 @@
         <x:v>$225,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$225,001</x:v>
       </x:c>
@@ -546,10 +1141,13 @@
         <x:v>$250,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$250,001</x:v>
       </x:c>
@@ -557,10 +1155,13 @@
         <x:v>$275,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8559</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$275,001</x:v>
       </x:c>
@@ -568,10 +1169,13 @@
         <x:v>$300,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8684</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$300,001</x:v>
       </x:c>
@@ -579,10 +1183,13 @@
         <x:v>$325,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8790</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$325,001</x:v>
       </x:c>
@@ -590,10 +1197,13 @@
         <x:v>$350,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8879</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$350,001</x:v>
       </x:c>
@@ -601,10 +1211,13 @@
         <x:v>$375,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8957</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$375,001</x:v>
       </x:c>
@@ -612,10 +1225,13 @@
         <x:v>$400,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9024</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$400,001</x:v>
       </x:c>
@@ -623,10 +1239,13 @@
         <x:v>$425,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9083</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$425,001</x:v>
       </x:c>
@@ -634,10 +1253,13 @@
         <x:v>$450,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9135</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$450,001</x:v>
       </x:c>
@@ -645,10 +1267,13 @@
         <x:v>$475,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9182</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$475,001</x:v>
       </x:c>
@@ -656,10 +1281,13 @@
         <x:v>$500,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9224</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$500,001</x:v>
       </x:c>
@@ -667,10 +1295,13 @@
         <x:v>$600,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9312</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$600,001</x:v>
       </x:c>
@@ -678,10 +1309,13 @@
         <x:v>$700,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9418</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$700,001</x:v>
       </x:c>
@@ -689,10 +1323,13 @@
         <x:v>$800,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9496</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$800,001</x:v>
       </x:c>
@@ -700,10 +1337,13 @@
         <x:v>$900,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9555</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$900,001</x:v>
       </x:c>
@@ -711,10 +1351,13 @@
         <x:v>$1,000,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9602</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$1,000,001</x:v>
       </x:c>
@@ -722,7 +1365,231 @@
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
+        <x:v>0.9622</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$5,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$6,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$6,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$7,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$7,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$8,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$8,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$9,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$9,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$10,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$11,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$11,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$12,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$12,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$13,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$13,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$14,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$14,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$15,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$15,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$16,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$16,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$17,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$17,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$18,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$18,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$19,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$19,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$20,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
